--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GitHub\ARTTEST\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{537D6AE9-9412-499D-BDB3-A10739B78DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788B08B3-2EF8-44B3-B446-CF0FF2899613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="520" windowWidth="10800" windowHeight="7450" xr2:uid="{36B65DA5-359E-49DE-B4FB-554BBEBFFCD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{36B65DA5-359E-49DE-B4FB-554BBEBFFCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">test </t>
   </si>
   <si>
-    <t>กกกก</t>
+    <t>กกกข</t>
+  </si>
+  <si>
+    <t>ปปปป</t>
   </si>
 </sst>
 </file>
@@ -415,13 +419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7512B7EB-78E4-49C4-87F2-EF5EB24770AE}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,4 +436,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B313096-4EE6-4A4D-B262-B2B5DB915A9E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>